--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_设置.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27930" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="520">
   <si>
     <t>备注</t>
   </si>
@@ -271,7 +271,7 @@
     <t>跳過當前對白</t>
   </si>
   <si>
-    <t>Skip the current dialogue</t>
+    <t>Continue</t>
   </si>
   <si>
     <t>Hotkey_StoryOption1</t>
@@ -379,7 +379,7 @@
     <t>選擇暗取</t>
   </si>
   <si>
-    <t>Choose Steal</t>
+    <t>Steal</t>
   </si>
   <si>
     <t>Hotkey_StealthPoison</t>
@@ -391,7 +391,7 @@
     <t>選擇下毒</t>
   </si>
   <si>
-    <t>Choose Poison</t>
+    <t>Poison</t>
   </si>
   <si>
     <t>Hotkey_StealthParalyze</t>
@@ -403,7 +403,7 @@
     <t>選擇點穴</t>
   </si>
   <si>
-    <t>Choose Immobilize</t>
+    <t>Immobilize</t>
   </si>
   <si>
     <t>Hotkey_StealthAssassin</t>
@@ -415,7 +415,7 @@
     <t>選擇突襲</t>
   </si>
   <si>
-    <t>Choose Ambush</t>
+    <t>Ambush</t>
   </si>
   <si>
     <t>Hotkey_StealthConfirm</t>
@@ -1213,7 +1213,7 @@
     <t>背景音樂</t>
   </si>
   <si>
-    <t>Background Music</t>
+    <t>BGM Volume</t>
   </si>
   <si>
     <t>SettingTitle_Sfx</t>
@@ -1225,7 +1225,7 @@
     <t>遊戲音效</t>
   </si>
   <si>
-    <t>Game Sound Effects</t>
+    <t>SFX Volume</t>
   </si>
   <si>
     <t>SettingTitle_DiaplayMode</t>
@@ -1306,7 +1306,7 @@
     <t>自動存檔時間</t>
   </si>
   <si>
-    <t>Auto Save Time</t>
+    <t>Auto Save Interval</t>
   </si>
   <si>
     <t>SettingTitle_Font</t>
@@ -1390,7 +1390,7 @@
     <t>遊戲保持後臺執行</t>
   </si>
   <si>
-    <t>Game continues to run in the background</t>
+    <t>Game run in background</t>
   </si>
   <si>
     <t>SettingTitle_ClickStoryOption</t>
@@ -1462,7 +1462,7 @@
     <t>戰鬥開啟後預設開啟自動戰鬥</t>
   </si>
   <si>
-    <t>Automatically start combat after battle opens</t>
+    <t>Automatically start combat after battle starts</t>
   </si>
   <si>
     <t>SettingTitle_DoubleSpeedWhenStart</t>
@@ -1474,7 +1474,7 @@
     <t>戰鬥開啟後預設開啟2倍速</t>
   </si>
   <si>
-    <t>2x speed is the default after battle opens</t>
+    <t>2x speed is the default after battle starts</t>
   </si>
   <si>
     <t>SettingTitle_EpAndAccuAtkVisible</t>
@@ -1486,7 +1486,7 @@
     <t>戰鬥開啟後內力、怒氣持續顯示</t>
   </si>
   <si>
-    <t>MP, Rage continuously displayed after battle opens</t>
+    <t>MP, Rage continuously displayed after battle starts</t>
   </si>
   <si>
     <t>SettingTitle_HpBarResident</t>
@@ -1498,7 +1498,7 @@
     <t>戰鬥開啟後生命持續顯示</t>
   </si>
   <si>
-    <t>HP continuously displayed after battle opens</t>
+    <t>HP continuously displayed after battle starts</t>
   </si>
   <si>
     <t>SettingTitle_OneTouchBuyFromHighToLow</t>
@@ -1534,7 +1534,7 @@
     <t>開啟自動存檔（僅切換場景和戰鬥結算時存檔）</t>
   </si>
   <si>
-    <t>Open auto-save (only saves when switching scenes and after battles)</t>
+    <t>Enable auto-save (only saves when switching scenes and after battles)</t>
   </si>
   <si>
     <t>SettingTitle_AutoSaveWhenChangeSceneAndRoaming</t>
@@ -1547,6 +1547,30 @@
   </si>
   <si>
     <t>Save every 10 minutes in free state (requires auto-save to be enabled)</t>
+  </si>
+  <si>
+    <t>SettingTitle_CloseLivingExpConfirmTip</t>
+  </si>
+  <si>
+    <t>使用江湖历练提升角色和武功等级时关闭确认提示</t>
+  </si>
+  <si>
+    <t>使用江湖歷練提升角色和武功等級時關閉確認提示</t>
+  </si>
+  <si>
+    <t>Enable auto-confirmation for using Jianghu knowledge to upgrade character and martial arts level</t>
+  </si>
+  <si>
+    <t>SettingTitle_JoyStickVibration</t>
+  </si>
+  <si>
+    <t>手柄震动</t>
+  </si>
+  <si>
+    <t>手柄震動</t>
+  </si>
+  <si>
+    <t>Joystick vibration</t>
   </si>
   <si>
     <t>end</t>
@@ -2719,10 +2743,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B125" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="D101" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2732,6 +2756,7 @@
     <col min="3" max="3" width="34.775" customWidth="1" style="52"/>
     <col min="4" max="4" width="107.216666666667" customWidth="1" style="53"/>
     <col min="5" max="5" width="43.1083333333333" customWidth="1" style="52"/>
+    <col min="6" max="6" width="56.875" customWidth="1" style="50"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1" style="54"/>
     <col min="8" max="8" width="15.775" customWidth="1" style="54"/>
     <col min="9" max="9" width="17.3333333333333" customWidth="1" style="54"/>
@@ -5301,19 +5326,59 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="51" t="s">
+      <c r="B151" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="52" t="s">
         <v>511</v>
+      </c>
+      <c r="D151" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="E151" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="F151" s="50" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="D152" s="53" t="s">
+        <v>516</v>
+      </c>
+      <c r="E152" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="F152" s="50" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="51" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151:C152">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C13 D9:D13 C14:D25 C26:C27 C28:D30 C31:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+  <conditionalFormatting sqref="C5:C13 D9:D13 C14:D25 C26:C27 C28:D30 C31:C150 C153:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E8 E9:E130 D26:D27 D31:D122 D124:D130 D131:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
+  <conditionalFormatting sqref="D5:E8 E9:E130 D26:D27 D31:D122 D124:D130 D131:E150 D153:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151:E152">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
